--- a/ComparadorWebform/Archivos/Output/ArchivoComparacion_ICBC_27_01_2021.xlsx
+++ b/ComparadorWebform/Archivos/Output/ArchivoComparacion_ICBC_27_01_2021.xlsx
@@ -111,12 +111,27 @@
       <x:family val="2"/>
     </x:font>
   </x:fonts>
-  <x:fills count="2">
+  <x:fills count="5">
     <x:fill>
       <x:patternFill patternType="none"/>
     </x:fill>
     <x:fill>
       <x:patternFill patternType="gray125"/>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="FFFFA500"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="FF90EE90"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="FFFFFF00"/>
+      </x:patternFill>
     </x:fill>
   </x:fills>
   <x:borders count="1">
@@ -138,16 +153,37 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="2">
+  <x:cellStyleXfs count="5">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="2">
+  <x:cellXfs count="5">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -458,31 +494,31 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
     <x:row r="1" spans="1:5">
-      <x:c r="A1" s="0" t="s">
+      <x:c r="A1" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:5">
-      <x:c r="A3" s="0" t="s">
+      <x:c r="A3" s="2" t="s">
         <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:5">
-      <x:c r="A4" s="0" t="s">
+      <x:c r="A4" s="3" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="B4" s="0" t="s">
+      <x:c r="B4" s="3" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="C4" s="0" t="s">
+      <x:c r="C4" s="3" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="D4" s="0" t="s">
+      <x:c r="D4" s="3" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:5">
-      <x:c r="A5" s="1">
+      <x:c r="A5" s="4">
         <x:v>44215</x:v>
       </x:c>
       <x:c r="B5" s="0" t="n">
@@ -496,7 +532,7 @@
       </x:c>
     </x:row>
     <x:row r="6" spans="1:5">
-      <x:c r="A6" s="1">
+      <x:c r="A6" s="4">
         <x:v>44215</x:v>
       </x:c>
       <x:c r="B6" s="0" t="n">
@@ -510,7 +546,7 @@
       </x:c>
     </x:row>
     <x:row r="7" spans="1:5">
-      <x:c r="A7" s="1">
+      <x:c r="A7" s="4">
         <x:v>44215</x:v>
       </x:c>
       <x:c r="B7" s="0" t="n">
@@ -524,7 +560,7 @@
       </x:c>
     </x:row>
     <x:row r="8" spans="1:5">
-      <x:c r="A8" s="1">
+      <x:c r="A8" s="4">
         <x:v>44210</x:v>
       </x:c>
       <x:c r="B8" s="0" t="n">
@@ -538,7 +574,7 @@
       </x:c>
     </x:row>
     <x:row r="9" spans="1:5">
-      <x:c r="A9" s="1">
+      <x:c r="A9" s="4">
         <x:v>44210</x:v>
       </x:c>
       <x:c r="B9" s="0" t="n">
@@ -552,7 +588,7 @@
       </x:c>
     </x:row>
     <x:row r="10" spans="1:5">
-      <x:c r="A10" s="1">
+      <x:c r="A10" s="4">
         <x:v>44210</x:v>
       </x:c>
       <x:c r="B10" s="0" t="n">
@@ -566,7 +602,7 @@
       </x:c>
     </x:row>
     <x:row r="11" spans="1:5">
-      <x:c r="A11" s="1">
+      <x:c r="A11" s="4">
         <x:v>44210</x:v>
       </x:c>
       <x:c r="B11" s="0" t="n">
@@ -580,7 +616,7 @@
       </x:c>
     </x:row>
     <x:row r="12" spans="1:5">
-      <x:c r="A12" s="1">
+      <x:c r="A12" s="4">
         <x:v>44208</x:v>
       </x:c>
       <x:c r="B12" s="0" t="n">
@@ -594,7 +630,7 @@
       </x:c>
     </x:row>
     <x:row r="13" spans="1:5">
-      <x:c r="A13" s="1">
+      <x:c r="A13" s="4">
         <x:v>44207</x:v>
       </x:c>
       <x:c r="B13" s="0" t="n">
@@ -608,7 +644,7 @@
       </x:c>
     </x:row>
     <x:row r="14" spans="1:5">
-      <x:c r="A14" s="1">
+      <x:c r="A14" s="4">
         <x:v>44203</x:v>
       </x:c>
       <x:c r="B14" s="0" t="n">
@@ -622,26 +658,27 @@
       </x:c>
     </x:row>
     <x:row r="16" spans="1:5">
-      <x:c r="A16" s="0" t="s">
+      <x:c r="A16" s="2" t="s">
         <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:5">
-      <x:c r="A17" s="0" t="s">
+      <x:c r="A17" s="3" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="C17" s="0" t="s">
+      <x:c r="B17" s="3" t="s"/>
+      <x:c r="C17" s="3" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="D17" s="0" t="s">
+      <x:c r="D17" s="3" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="E17" s="0" t="s">
+      <x:c r="E17" s="3" t="s">
         <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:5">
-      <x:c r="A18" s="1">
+      <x:c r="A18" s="4">
         <x:v>44211</x:v>
       </x:c>
       <x:c r="C18" s="0" t="s">
@@ -655,7 +692,7 @@
       </x:c>
     </x:row>
     <x:row r="19" spans="1:5">
-      <x:c r="A19" s="1">
+      <x:c r="A19" s="4">
         <x:v>44211</x:v>
       </x:c>
       <x:c r="C19" s="0" t="s">
@@ -669,7 +706,7 @@
       </x:c>
     </x:row>
     <x:row r="20" spans="1:5">
-      <x:c r="A20" s="1">
+      <x:c r="A20" s="4">
         <x:v>44202</x:v>
       </x:c>
       <x:c r="C20" s="0" t="s">
@@ -683,7 +720,7 @@
       </x:c>
     </x:row>
     <x:row r="22" spans="1:5">
-      <x:c r="A22" s="0" t="s">
+      <x:c r="A22" s="2" t="s">
         <x:v>18</x:v>
       </x:c>
     </x:row>
